--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>你好。</t>
   </si>
@@ -165,13 +165,121 @@
   </si>
   <si>
     <t>Shaking hands to greet. Not bowing and hugging</t>
+  </si>
+  <si>
+    <t>很高兴认识你。</t>
+  </si>
+  <si>
+    <t>Very nice to meet you.</t>
+  </si>
+  <si>
+    <t>&gt; Very glad to know you.</t>
+  </si>
+  <si>
+    <t>/Hěn gāoxìng rènshì nǐ/</t>
+  </si>
+  <si>
+    <t>很</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>/Hěn/</t>
+  </si>
+  <si>
+    <t>高兴</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>/gāoxìng/</t>
+  </si>
+  <si>
+    <t>认识</t>
+  </si>
+  <si>
+    <t>/rènshì/</t>
+  </si>
+  <si>
+    <t>to know</t>
+  </si>
+  <si>
+    <t>/nǐ/</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>/Rènshì nǐ hěn gāoxìng/</t>
+  </si>
+  <si>
+    <t>认识你很高兴。</t>
+  </si>
+  <si>
+    <t>Mr. / sir</t>
+  </si>
+  <si>
+    <t>先生</t>
+  </si>
+  <si>
+    <t>/Xiānshēng/</t>
+  </si>
+  <si>
+    <t>先生 is also used as a title, meaning "Mr." But different from English, the last name is placed in front of the title.</t>
+  </si>
+  <si>
+    <t>It's perfectly fine to say 先生，很高兴认识你 (Sir, I am very glad to meet you). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can also say 先生，认识你很高兴.</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>小姐</t>
+  </si>
+  <si>
+    <t>/Xiǎojiě/</t>
+  </si>
+  <si>
+    <t>While on a formal and business occasion, it literally means "Miss" to address a woman.</t>
+  </si>
+  <si>
+    <t>In some areas of China, it can actually be offensive.</t>
+  </si>
+  <si>
+    <t>Ms. or Ma'am</t>
+  </si>
+  <si>
+    <t>女士</t>
+  </si>
+  <si>
+    <t>/Nǚshì/</t>
+  </si>
+  <si>
+    <t>comrade</t>
+  </si>
+  <si>
+    <t>同志</t>
+  </si>
+  <si>
+    <t>/Tóngzhì/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同志 (comrade) is the most "authentic" term people used to call each other in Mainland China. </t>
+  </si>
+  <si>
+    <t>Though, it's becoming less popular and even a bit outdated in some areas of China and is being replaced by the Western terms 先生, 小姐, and 女士.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +311,12 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFF26F12"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,6 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,8 +752,135 @@
         <v>44</v>
       </c>
     </row>
+    <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -646,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -720,10 +962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,29 +993,67 @@
     </row>
     <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>你好。</t>
   </si>
@@ -206,12 +206,6 @@
     <t>to know</t>
   </si>
   <si>
-    <t>/nǐ/</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
     <t>/Rènshì nǐ hěn gāoxìng/</t>
   </si>
   <si>
@@ -273,6 +267,79 @@
   </si>
   <si>
     <t>Though, it's becoming less popular and even a bit outdated in some areas of China and is being replaced by the Western terms 先生, 小姐, and 女士.</t>
+  </si>
+  <si>
+    <t>&gt; I also very glad to know you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice to meet you too.
+</t>
+  </si>
+  <si>
+    <t>我也很高兴认识您。</t>
+  </si>
+  <si>
+    <t>/Wǒ yě hěn gāoxìng rènshì nín./</t>
+  </si>
+  <si>
+    <t>I / me</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>/Wǒ/</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>/Yě/</t>
+  </si>
+  <si>
+    <t>also / too</t>
+  </si>
+  <si>
+    <t>认识您我也很高兴. </t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>/Rènshì nín wǒ yě hěn gāoxìng./</t>
+  </si>
+  <si>
+    <t>he / him</t>
+  </si>
+  <si>
+    <t>他</t>
+  </si>
+  <si>
+    <t>/Tā/</t>
+  </si>
+  <si>
+    <t>她</t>
+  </si>
+  <si>
+    <t>she / her</t>
+  </si>
+  <si>
+    <t>谢谢</t>
+  </si>
+  <si>
+    <t>/Xièxiè/</t>
+  </si>
+  <si>
+    <t>Thanks.</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>/Duō/</t>
+  </si>
+  <si>
+    <t>much / many / a lot</t>
   </si>
 </sst>
 </file>
@@ -286,19 +353,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="23"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="Lucida Sans Unicode"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="Lucida Sans Unicode"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -314,6 +368,20 @@
     <font>
       <sz val="18"/>
       <color rgb="FFF26F12"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
@@ -629,22 +697,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
@@ -666,13 +734,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
@@ -688,7 +756,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -701,7 +769,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -714,7 +782,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
@@ -727,7 +795,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
@@ -740,7 +808,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
@@ -753,7 +821,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
@@ -765,117 +833,210 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
-        <v>72</v>
+      <c r="A53" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
-        <v>77</v>
+      <c r="A57" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
-        <v>80</v>
+      <c r="A61" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -888,14 +1049,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -905,7 +1066,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -915,7 +1076,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -925,7 +1086,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -935,7 +1096,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -945,7 +1106,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -964,14 +1125,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
@@ -979,37 +1140,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1019,41 +1180,41 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>75</v>
+      <c r="A23" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>82</v>
+      <c r="A26" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>你好。</t>
   </si>
@@ -340,6 +340,102 @@
   </si>
   <si>
     <t>much / many / a lot</t>
+  </si>
+  <si>
+    <t>Thanks a lot.</t>
+  </si>
+  <si>
+    <t>多谢</t>
+  </si>
+  <si>
+    <t>/Duō xiè/</t>
+  </si>
+  <si>
+    <t>不客气</t>
+  </si>
+  <si>
+    <t>/Bù kèqì/</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>&gt;Not courteous</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>/Bù/</t>
+  </si>
+  <si>
+    <t>客气</t>
+  </si>
+  <si>
+    <t>/Kèqì/</t>
+  </si>
+  <si>
+    <t>Courteous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although the literal meaning of 不客气 is "not courteous," its implied meaning is "no need to be courteous." </t>
+  </si>
+  <si>
+    <t>This is used in response to 谢谢 (thank you).</t>
+  </si>
+  <si>
+    <t>太</t>
+  </si>
+  <si>
+    <t>/tài/</t>
+  </si>
+  <si>
+    <t>too, as in "too much," "too tall," etc.</t>
+  </si>
+  <si>
+    <t>You are welcome</t>
+  </si>
+  <si>
+    <t>&gt;You're too courteous</t>
+  </si>
+  <si>
+    <t>您太客气</t>
+  </si>
+  <si>
+    <t>你太客气 </t>
+  </si>
+  <si>
+    <t>/Nǐ tài kèqì/</t>
+  </si>
+  <si>
+    <t>太客气</t>
+  </si>
+  <si>
+    <t>/Tài kèqì/</t>
+  </si>
+  <si>
+    <t>/Nín tài kèqì/</t>
+  </si>
+  <si>
+    <t>Thanks so much</t>
+  </si>
+  <si>
+    <t>太谢谢了</t>
+  </si>
+  <si>
+    <t>/Tài xièxièle/</t>
+  </si>
+  <si>
+    <t>太 (too) is a word that expresses a high degree of something. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It usually goes with 了, which is used to stress this high degree, but since 太 plays the key role in the meaning, 了 is optional.  </t>
+  </si>
+  <si>
+    <t>Usually an adjective is inserted between these two words.  For instance, 太好了 means “That’s great!”  Here 太谢谢了 (Thanks so much) expresses a high degree of gratitude.</t>
   </si>
 </sst>
 </file>
@@ -697,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,6 +1133,118 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A89" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A105" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K113" t="s">
+        <v>93</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1123,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,6 +1425,31 @@
         <v>81</v>
       </c>
     </row>
+    <row r="30" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
   <si>
     <t>你好。</t>
   </si>
@@ -436,6 +436,45 @@
   </si>
   <si>
     <t>Usually an adjective is inserted between these two words.  For instance, 太好了 means “That’s great!”  Here 太谢谢了 (Thanks so much) expresses a high degree of gratitude.</t>
+  </si>
+  <si>
+    <t>再见</t>
+  </si>
+  <si>
+    <t>Goodbye</t>
+  </si>
+  <si>
+    <t>&gt; See again</t>
+  </si>
+  <si>
+    <t>/Zàijiàn/</t>
+  </si>
+  <si>
+    <t>再</t>
+  </si>
+  <si>
+    <t>/Zài/</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>见</t>
+  </si>
+  <si>
+    <t>/Jiàn/</t>
+  </si>
+  <si>
+    <t>to see / to meet</t>
+  </si>
+  <si>
+    <t>拜拜</t>
+  </si>
+  <si>
+    <t>/Bàibài/</t>
+  </si>
+  <si>
+    <t>Bye</t>
   </si>
 </sst>
 </file>
@@ -793,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,6 +1284,57 @@
       </c>
       <c r="C114" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A117" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A125" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="198">
   <si>
     <t>你好。</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>/rènshì/</t>
-  </si>
-  <si>
-    <t>to know</t>
   </si>
   <si>
     <t>/Rènshì nǐ hěn gāoxìng/</t>
@@ -475,13 +472,210 @@
   </si>
   <si>
     <t>Bye</t>
+  </si>
+  <si>
+    <t>to know/meet</t>
+  </si>
+  <si>
+    <t>请问，您会说英语吗？</t>
+  </si>
+  <si>
+    <t>Excuse me. Can you speak English?</t>
+  </si>
+  <si>
+    <t>对不起, 我不懂英语。</t>
+  </si>
+  <si>
+    <t>Sorry. I don't understand English.</t>
+  </si>
+  <si>
+    <t>我说汉语。</t>
+  </si>
+  <si>
+    <t>I speak Mandarin.</t>
+  </si>
+  <si>
+    <t>哦，我会说一点儿汉语。</t>
+  </si>
+  <si>
+    <t>Oh, I can speak a little Mandarin.</t>
+  </si>
+  <si>
+    <t>真的？！你是哪国人？</t>
+  </si>
+  <si>
+    <t>Really?! Where are you from?</t>
+  </si>
+  <si>
+    <t>我是美国人。</t>
+  </si>
+  <si>
+    <t>I'm from the United States.</t>
+  </si>
+  <si>
+    <t>请问</t>
+  </si>
+  <si>
+    <t>/Qǐngwèn/</t>
+  </si>
+  <si>
+    <t>请</t>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>/Qǐng/</t>
+  </si>
+  <si>
+    <t>问</t>
+  </si>
+  <si>
+    <t>/Wèn/</t>
+  </si>
+  <si>
+    <t>to ask</t>
+  </si>
+  <si>
+    <t>Please ask / Excuse me</t>
+  </si>
+  <si>
+    <t>Can you speak English?</t>
+  </si>
+  <si>
+    <t>/Nín huì shuō yīngyǔ ma?/</t>
+  </si>
+  <si>
+    <t>can; to know how</t>
+  </si>
+  <si>
+    <t>/Huì/</t>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFEC1E23"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFEC1E23"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF47AA41"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>/Shuō/</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>English (referring to the language)</t>
+  </si>
+  <si>
+    <t>/Yīngyǔ/</t>
+  </si>
+  <si>
+    <r>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is put at the end of a sentence to turn it into a yes/no question</t>
+    </r>
+  </si>
+  <si>
+    <t>您会说英语吗？</t>
+  </si>
+  <si>
+    <t>Japanese (referring to the language)</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>/Rìyǔ/</t>
+  </si>
+  <si>
+    <t>French (referring to the language)</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>/Fǎyǔ/</t>
+  </si>
+  <si>
+    <t>German (referring to the language)</t>
+  </si>
+  <si>
+    <t>德语</t>
+  </si>
+  <si>
+    <t>/Déyǔ/</t>
+  </si>
+  <si>
+    <t>Spanish (referring to the language)</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>/Xībānyá yǔ/</t>
+  </si>
+  <si>
+    <r>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is attached to a basic word to form the word for the language</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +714,27 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF005D82"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFEC1E23"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF47AA41"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -529,7 +744,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -537,11 +752,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -552,6 +776,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +1217,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
@@ -1002,13 +1228,13 @@
         <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -1021,320 +1247,463 @@
     </row>
     <row r="45" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
         <v>84</v>
       </c>
-      <c r="F45" t="s">
-        <v>85</v>
-      </c>
       <c r="J45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="s">
         <v>93</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P45" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
         <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
         <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
         <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
         <v>78</v>
-      </c>
-      <c r="C61" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
         <v>87</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
         <v>89</v>
-      </c>
-      <c r="B69" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" t="s">
         <v>96</v>
-      </c>
-      <c r="B73" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
         <v>100</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
         <v>103</v>
-      </c>
-      <c r="B85" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
         <v>107</v>
-      </c>
-      <c r="C89" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
         <v>114</v>
-      </c>
-      <c r="B97" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
         <v>116</v>
-      </c>
-      <c r="C101" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" t="s">
         <v>109</v>
-      </c>
-      <c r="C105" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
         <v>111</v>
-      </c>
-      <c r="B106" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
         <v>121</v>
-      </c>
-      <c r="B109" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="F113" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="K113" t="s">
+        <v>92</v>
+      </c>
+      <c r="L113" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K113" t="s">
-        <v>93</v>
-      </c>
-      <c r="L113" s="6" t="s">
+      <c r="O113" t="s">
         <v>127</v>
-      </c>
-      <c r="O113" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
         <v>124</v>
-      </c>
-      <c r="C114" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" t="s">
         <v>142</v>
-      </c>
-      <c r="B117" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" t="s">
         <v>145</v>
-      </c>
-      <c r="B121" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D126" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" t="s">
         <v>139</v>
       </c>
-      <c r="E126" t="s">
-        <v>140</v>
+    </row>
+    <row r="129" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A129" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A133" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A137" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>171</v>
+      </c>
+      <c r="D138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A145" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A149" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>172</v>
+      </c>
+      <c r="D154" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A157" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A161" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C165" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A169" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1345,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,6 +1782,68 @@
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1421,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,68 +1910,79 @@
     </row>
     <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="211">
   <si>
     <t>你好。</t>
   </si>
@@ -669,6 +669,56 @@
       </rPr>
       <t> is attached to a basic word to form the word for the language</t>
     </r>
+  </si>
+  <si>
+    <t>Excuse me / Please ask</t>
+  </si>
+  <si>
+    <t>Sorry. I don't understand English</t>
+  </si>
+  <si>
+    <t>对不起，我不懂英语</t>
+  </si>
+  <si>
+    <t>/Duìbùqǐ, wǒ bù dǒng yīngyǔ/</t>
+  </si>
+  <si>
+    <t>对不起</t>
+  </si>
+  <si>
+    <t>Excuse me; Sorry</t>
+  </si>
+  <si>
+    <t>/Duìbùqǐ/</t>
+  </si>
+  <si>
+    <r>
+      <t>对不起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> has two meanings and usages.  </t>
+    </r>
+  </si>
+  <si>
+    <t>One is "sorry" when apologizing to someone;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the other is "excuse me" when trying to get someone's attention.</t>
+  </si>
+  <si>
+    <t>懂</t>
+  </si>
+  <si>
+    <t>to understand</t>
+  </si>
+  <si>
+    <t>/Dǒng/</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P170"/>
+  <dimension ref="A1:P186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,6 +1754,58 @@
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>203</v>
+      </c>
+      <c r="C178" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A181" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A185" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>199</v>
+      </c>
+      <c r="E186" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1852,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,29 +2058,44 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="237">
   <si>
     <t>你好。</t>
   </si>
@@ -720,12 +720,143 @@
   <si>
     <t>/Dǒng/</t>
   </si>
+  <si>
+    <t>I speak Mandarin / I speak Chinese</t>
+  </si>
+  <si>
+    <t>说</t>
+  </si>
+  <si>
+    <t>/Wǒ shuō hànyǔ/</t>
+  </si>
+  <si>
+    <t>汉语</t>
+  </si>
+  <si>
+    <t>/Hànyǔ/</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>我说汉语</t>
+  </si>
+  <si>
+    <r>
+      <t>汉语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>中文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is another term for "Chinese."</t>
+    </r>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>普通话</t>
+  </si>
+  <si>
+    <t>/Pǔtōnghuà/</t>
+  </si>
+  <si>
+    <t>Cantonese</t>
+  </si>
+  <si>
+    <t>广东话</t>
+  </si>
+  <si>
+    <t>/Guǎngdōng huà/</t>
+  </si>
+  <si>
+    <t>Oh, I can speak a little Chinese</t>
+  </si>
+  <si>
+    <t>/yī/</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>点儿</t>
+  </si>
+  <si>
+    <t>/Diǎn/</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <r>
+      <t>哦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>/Ó/</t>
+  </si>
+  <si>
+    <t>Oh</t>
+  </si>
+  <si>
+    <r>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFDF7523"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>哦，我会说一点儿汉语</t>
+  </si>
+  <si>
+    <t>/Ó, wǒ huì shuō yī diǎn er hànyǔ/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +916,20 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFDF7523"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -815,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -828,6 +973,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P186"/>
+  <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,6 +1952,136 @@
       </c>
       <c r="E186" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A189" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A197" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A201" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>219</v>
+      </c>
+      <c r="B202" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A205" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C205" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A209" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C209" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A213" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B213" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A217" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C217" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A221" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B221" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A225" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G225" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1954,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,6 +2374,11 @@
         <v>207</v>
       </c>
     </row>
+    <row r="50" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="259">
   <si>
     <t>你好。</t>
   </si>
@@ -850,6 +850,72 @@
   </si>
   <si>
     <t>/Ó, wǒ huì shuō yī diǎn er hànyǔ/</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>/Èyǔ/</t>
+  </si>
+  <si>
+    <t>/Zhēn de?! Nǐ shì nǎ guórén?/</t>
+  </si>
+  <si>
+    <t>哪</t>
+  </si>
+  <si>
+    <t>Which</t>
+  </si>
+  <si>
+    <t>/Nǎ/</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>/Guó/</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>/Rén/</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>/Shì/</t>
+  </si>
+  <si>
+    <t>/Nǐ shì nǎ guórén?/</t>
+  </si>
+  <si>
+    <t>Where are you from? / You are which country person?</t>
+  </si>
+  <si>
+    <t>你是哪国人？</t>
+  </si>
+  <si>
+    <t>真的</t>
+  </si>
+  <si>
+    <t>Really</t>
+  </si>
+  <si>
+    <t>/Zhēn de/</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -974,6 +1040,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P226"/>
+  <dimension ref="A1:P258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,6 +2151,110 @@
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A229" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A253" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>160</v>
+      </c>
+      <c r="D258" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="281">
   <si>
     <t>你好。</t>
   </si>
@@ -916,6 +916,72 @@
   </si>
   <si>
     <t>/Zhēn de/</t>
+  </si>
+  <si>
+    <t>/Wǒ shì měiguó rén/</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>the United States.</t>
+  </si>
+  <si>
+    <t>/měiguó/</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>American / from the U.S. / the U.S. Person</t>
+  </si>
+  <si>
+    <t>/Měiguó rén/</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>/Fàguó/</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>/Déguó/</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>/Yīngguó/</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>/Xiānggǎng/</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>/Táiwān/</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P258"/>
+  <dimension ref="A1:P290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,6 +2321,110 @@
       </c>
       <c r="D258" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A261" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="C262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A265" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A269" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>162</v>
+      </c>
+      <c r="D270" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A273" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>268</v>
+      </c>
+      <c r="B274" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A277" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>270</v>
+      </c>
+      <c r="B278" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A281" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>272</v>
+      </c>
+      <c r="B282" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A285" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>277</v>
+      </c>
+      <c r="C286" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A289" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>278</v>
+      </c>
+      <c r="B290" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="284">
   <si>
     <t>你好。</t>
   </si>
@@ -982,6 +982,15 @@
   </si>
   <si>
     <t>/Táiwān/</t>
+  </si>
+  <si>
+    <t>太好了</t>
+  </si>
+  <si>
+    <t>That’s great!</t>
+  </si>
+  <si>
+    <t>/Tài hǎole/</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P290"/>
+  <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,684 +1755,697 @@
     </row>
     <row r="93" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K113" t="s">
-        <v>92</v>
-      </c>
-      <c r="L113" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O113" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B117" t="s">
-        <v>142</v>
+        <v>128</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K117" t="s">
+        <v>92</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O117" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F125" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A129" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>149</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B130" t="s">
         <v>148</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D130" t="s">
         <v>138</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E130" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A129" s="6" t="s">
+    <row r="133" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A133" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>166</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A133" s="6" t="s">
+    <row r="137" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A137" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>170</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B138" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A137" s="6" t="s">
+    <row r="141" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>171</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D142" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="6" t="s">
+    <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A145" s="6" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>174</v>
-      </c>
-      <c r="C142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A145" s="9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>178</v>
-      </c>
-      <c r="B146" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="C146" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A149" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C149" t="s">
-        <v>182</v>
+      <c r="A149" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B150" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A153" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="C153" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>172</v>
-      </c>
-      <c r="D154" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C157" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="D158" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A161" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C161" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A165" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C165" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>191</v>
+      <c r="A166" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D169" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="C169" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>194</v>
+      <c r="A170" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A173" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C173" t="s">
-        <v>164</v>
+        <v>195</v>
+      </c>
+      <c r="D173" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A177" s="6" t="s">
-        <v>202</v>
+        <v>163</v>
+      </c>
+      <c r="C177" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>203</v>
-      </c>
-      <c r="C178" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>199</v>
-      </c>
-      <c r="E186" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="C186" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A189" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>178</v>
+        <v>199</v>
+      </c>
+      <c r="E190" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A193" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>215</v>
+      <c r="A193" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A197" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>213</v>
+      <c r="A197" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>219</v>
-      </c>
-      <c r="B202" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C205" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="B206" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C209" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A213" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B213" t="s">
-        <v>226</v>
+        <v>163</v>
+      </c>
+      <c r="C213" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C217" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="B217" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B221" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="C221" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G225" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="B225" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="G229" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>237</v>
-      </c>
-      <c r="B230" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A233" s="11" t="s">
-        <v>241</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A233" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E249" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="E253" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>257</v>
-      </c>
-      <c r="B254" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
-        <v>159</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>160</v>
-      </c>
-      <c r="D258" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A261" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-      <c r="C262" t="s">
-        <v>262</v>
+        <v>160</v>
+      </c>
+      <c r="D262" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A265" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C265" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="C266" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A269" s="6" t="s">
-        <v>161</v>
+        <v>263</v>
+      </c>
+      <c r="C269" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A273" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>162</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D274" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A273" s="6" t="s">
+    <row r="277" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>268</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B278" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A277" s="6" t="s">
+    <row r="281" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A281" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>270</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B282" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A281" s="6" t="s">
+    <row r="285" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A285" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>272</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B286" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A285" s="6" t="s">
+    <row r="289" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A289" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>277</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C290" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A289" s="6" t="s">
+    <row r="293" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A293" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>278</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B294" t="s">
         <v>280</v>
       </c>
     </row>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="339">
   <si>
     <t>你好。</t>
   </si>
@@ -991,6 +991,222 @@
   </si>
   <si>
     <t>/Tài hǎole/</t>
+  </si>
+  <si>
+    <t>今天很冷</t>
+  </si>
+  <si>
+    <t>Today is cold</t>
+  </si>
+  <si>
+    <t>/Jīntiān hěn lěng/</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>/Jīntiān/</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>冷（的）</t>
+  </si>
+  <si>
+    <t>/Lěng (de)/</t>
+  </si>
+  <si>
+    <r>
+      <t>when you describe something with adverbs or adjectives, usually the verb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (to be) gets dropped.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>很</t>
+    </r>
+  </si>
+  <si>
+    <t>translated as "very"</t>
+  </si>
+  <si>
+    <t>also often used to connect a noun and an adjective</t>
+  </si>
+  <si>
+    <t>我很好</t>
+  </si>
+  <si>
+    <t>I'm good</t>
+  </si>
+  <si>
+    <t>/Wǒ hěn hǎo/</t>
+  </si>
+  <si>
+    <t>The time can be placed either before or after the subject.</t>
+  </si>
+  <si>
+    <t>今天我很冷</t>
+  </si>
+  <si>
+    <t>我今天很冷</t>
+  </si>
+  <si>
+    <t>I'm cold today</t>
+  </si>
+  <si>
+    <t>/Jīntiān wǒ hěn lěng/ or /Wǒ jīntiān hěn lěng/</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>热（的）</t>
+  </si>
+  <si>
+    <t>/Rè (de)/</t>
+  </si>
+  <si>
+    <t>今天早上</t>
+  </si>
+  <si>
+    <t>/Jīntiān Zǎoshang/</t>
+  </si>
+  <si>
+    <t>this morning / today morning</t>
+  </si>
+  <si>
+    <t>This morning is hot</t>
+  </si>
+  <si>
+    <t>今天早上很热</t>
+  </si>
+  <si>
+    <t>/Jīntiān Zǎoshang hěn Rè/</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>/Běijīng/</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Beijing is hot today</t>
+  </si>
+  <si>
+    <t>北京今天很热</t>
+  </si>
+  <si>
+    <t>/Běijīng Jīntiān hěn Rè/</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>/Dōngtiān/</t>
+  </si>
+  <si>
+    <t>China is a country with wide-﻿ranging climatic conditions: </t>
+  </si>
+  <si>
+    <t>summer can be extremely hot</t>
+  </si>
+  <si>
+    <t>winter can be extremely cold</t>
+  </si>
+  <si>
+    <t>the most comfortable season of the year is autumn</t>
+  </si>
+  <si>
+    <t>Spring can also be delightful</t>
+  </si>
+  <si>
+    <t>The winter is too cold.</t>
+  </si>
+  <si>
+    <t>/Dōngtiān tài lěngle/</t>
+  </si>
+  <si>
+    <t>冬天太冷了</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>/de/</t>
+  </si>
+  <si>
+    <r>
+      <t>The particle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> appears between the "possessor" and the "possessed." </t>
+    </r>
+  </si>
+  <si>
+    <t>It is similar to the usage of "of" or "'s" in English.</t>
+  </si>
+  <si>
+    <t>the winter in Beijing / Beijing's winter</t>
+  </si>
+  <si>
+    <t>北京的冬天</t>
+  </si>
+  <si>
+    <t>/Běijīng de dōngtiān/</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P294"/>
+  <dimension ref="A1:P350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,982 +1687,1167 @@
     </row>
     <row r="13" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>298</v>
+      </c>
+      <c r="B14" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
+    <row r="37" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
+    <row r="41" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
+    <row r="45" spans="1:13" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>51</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H45" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
+    <row r="49" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F49" t="s">
         <v>84</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J49" t="s">
         <v>92</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
+    <row r="53" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
+    <row r="57" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
+    <row r="61" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
+    <row r="65" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
+    <row r="69" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
+    <row r="73" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
+    <row r="77" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A77" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="B77" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>281</v>
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="C113" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K117" t="s">
-        <v>92</v>
-      </c>
-      <c r="L117" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O117" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>123</v>
-      </c>
-      <c r="C118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B121" t="s">
-        <v>142</v>
+        <v>128</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K121" t="s">
+        <v>92</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O121" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F129" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="B129" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>149</v>
-      </c>
-      <c r="B130" t="s">
-        <v>148</v>
-      </c>
-      <c r="D130" t="s">
-        <v>138</v>
-      </c>
-      <c r="E130" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
-        <v>165</v>
+        <v>147</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>148</v>
+      </c>
+      <c r="D134" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A137" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A141" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>171</v>
-      </c>
-      <c r="D142" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="B142" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>174</v>
-      </c>
-      <c r="C146" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="D146" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A149" s="9" t="s">
-        <v>177</v>
+      <c r="A149" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>178</v>
-      </c>
-      <c r="B150" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="C150" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C153" t="s">
-        <v>182</v>
+      <c r="A153" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B154" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="C157" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>172</v>
-      </c>
-      <c r="D158" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A161" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C161" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="D162" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A165" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C169" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>191</v>
+      <c r="A170" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A173" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C173" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D177" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A177" s="6" t="s">
+    <row r="181" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A181" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C181" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A181" s="6" t="s">
+    <row r="185" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A185" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>203</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C186" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A185" s="6" t="s">
+    <row r="189" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A189" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>209</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C190" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A189" s="6" t="s">
+    <row r="193" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>199</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E194" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A193" s="6" t="s">
+    <row r="197" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A197" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A197" s="10" t="s">
+    <row r="201" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A201" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A201" s="6" t="s">
+    <row r="205" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A205" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D205" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A205" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>219</v>
-      </c>
-      <c r="B206" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C209" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="B210" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A213" s="6" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C213" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B217" t="s">
-        <v>226</v>
+        <v>163</v>
+      </c>
+      <c r="C217" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C221" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="B221" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B225" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G229" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="G233" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>237</v>
-      </c>
-      <c r="B234" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
-        <v>241</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A237" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>242</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="11" t="s">
+    <row r="245" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B246" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A245" s="11" t="s">
+    <row r="249" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>248</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="11" t="s">
+    <row r="253" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A253" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>251</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B254" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="11" t="s">
+    <row r="257" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E257" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="11" t="s">
+    <row r="261" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B262" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A261" s="11" t="s">
+    <row r="265" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>160</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D266" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A265" s="6" t="s">
+    <row r="269" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A269" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>261</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C270" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A269" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C269" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A273" s="6" t="s">
-        <v>161</v>
+        <v>263</v>
+      </c>
+      <c r="C273" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>162</v>
-      </c>
-      <c r="D274" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A277" s="6" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>268</v>
-      </c>
-      <c r="B278" t="s">
-        <v>267</v>
+        <v>162</v>
+      </c>
+      <c r="D278" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A281" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B282" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A285" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B286" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>277</v>
-      </c>
-      <c r="C290" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="B290" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>277</v>
+      </c>
+      <c r="C294" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A297" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>278</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B298" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A301" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>288</v>
+      </c>
+      <c r="B302" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A305" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>290</v>
+      </c>
+      <c r="B306" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A309" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>285</v>
+      </c>
+      <c r="C310" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A313" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>303</v>
+      </c>
+      <c r="C314" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A317" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>305</v>
+      </c>
+      <c r="B318" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A321" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D321" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A325" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>311</v>
+      </c>
+      <c r="C326" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A329" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>316</v>
+      </c>
+      <c r="B330" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A333" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>317</v>
+      </c>
+      <c r="C334" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A337" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>320</v>
+      </c>
+      <c r="B338" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A341" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>328</v>
+      </c>
+      <c r="D342" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A345" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>332</v>
+      </c>
+      <c r="B346" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A349" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D349" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2595,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,9 +3140,69 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Vocabulary" sheetId="3" r:id="rId1"/>
-    <sheet name="Conversation" sheetId="1" r:id="rId2"/>
-    <sheet name="Grammar" sheetId="2" r:id="rId3"/>
+    <sheet name="Number" sheetId="4" r:id="rId1"/>
+    <sheet name="Vocabulary" sheetId="3" r:id="rId2"/>
+    <sheet name="Conversation" sheetId="1" r:id="rId3"/>
+    <sheet name="Grammar" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="353">
   <si>
     <t>你好。</t>
   </si>
@@ -1207,6 +1208,68 @@
   </si>
   <si>
     <t>/Běijīng de dōngtiān/</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>是啊</t>
+  </si>
+  <si>
+    <t>/Shì a/</t>
+  </si>
+  <si>
+    <t>Yes, indeed!</t>
+  </si>
+  <si>
+    <r>
+      <t>When using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> in a sentence, it is placed at the end of it. It expresses exclamation or enthusiasm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hello! Beijing is cold today!</t>
+  </si>
+  <si>
+    <t>你好啊！今天北京很冷啊！</t>
+  </si>
+  <si>
+    <t>/Nǐ hǎo a! Jīntiān běijīng hěn lěng a!/</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>/Yī yuè/</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>/Èr yuè/</t>
+  </si>
+  <si>
+    <t>February</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1333,6 +1396,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1614,10 +1680,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P350"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P362"/>
+  <sheetViews>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,13 +2957,52 @@
         <v>336</v>
       </c>
     </row>
+    <row r="353" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A353" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>339</v>
+      </c>
+      <c r="B354" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A357" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>342</v>
+      </c>
+      <c r="C358" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A361" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D362" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
@@ -2994,12 +3140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,6 +3351,11 @@
         <v>335</v>
       </c>
     </row>
+    <row r="75" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
